--- a/book_ans.xlsx
+++ b/book_ans.xlsx
@@ -490,6 +490,18 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -499,9 +511,21 @@
         <v>80</v>
       </c>
       <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
         <v>200</v>
       </c>
     </row>
@@ -513,10 +537,22 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="n">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>380</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +566,19 @@
         <v>60</v>
       </c>
       <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
         <v>540</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +589,22 @@
         <v>260</v>
       </c>
       <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>680</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -555,10 +615,22 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
         <v>100</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>800</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -569,10 +641,22 @@
         <v>330</v>
       </c>
       <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
         <v>120</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>900</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -583,10 +667,22 @@
         <v>200</v>
       </c>
       <c r="C9" t="n">
+        <v>-130</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E9" t="n">
         <v>140</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>980</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +693,22 @@
         <v>180</v>
       </c>
       <c r="C10" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E10" t="n">
         <v>160</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>1040</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -611,10 +719,22 @@
         <v>160</v>
       </c>
       <c r="C11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E11" t="n">
         <v>180</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>1080</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +745,22 @@
         <v>140</v>
       </c>
       <c r="C12" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E12" t="n">
         <v>200</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>1100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/book_ans.xlsx
+++ b/book_ans.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,13 +24,26 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff3300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -513,7 +531,7 @@
       <c r="C3" t="n">
         <v>80</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>40</v>
       </c>
       <c r="E3" t="n">
@@ -617,7 +635,7 @@
       <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>20</v>
       </c>
       <c r="E7" t="n">
@@ -733,7 +751,7 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="1" t="n">
         <v>40</v>
       </c>
     </row>
@@ -759,9 +777,25 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>20</v>
       </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Suitable</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Not Suitable</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
